--- a/markdown_generator/awards_excel.xlsx
+++ b/markdown_generator/awards_excel.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkurchin/Dropbox (MIT)/rkurchin.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{90BE1347-3E96-1B46-95DE-70365A9F7880}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3747CD-9F00-0948-A193-F61FF4DEABEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="awards" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>title</t>
   </si>
@@ -194,12 +194,27 @@
   </si>
   <si>
     <t>2009-01-01</t>
+  </si>
+  <si>
+    <t>Graduate Student Teaching Award</t>
+  </si>
+  <si>
+    <t>mit_teaching</t>
+  </si>
+  <si>
+    <t>MIT School of Engineering</t>
+  </si>
+  <si>
+    <t>"The Graduate Teaching Awards are presented to a faculty member or a teaching assistant from each school (Architecture and Planning, Humanities, Arts and Social Sciences, Engineering, Sloan School of Management, Science, and Health Sciences and Technology) for excellence in teaching graduate courses."</t>
+  </si>
+  <si>
+    <t>2019-05-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1034,11 +1049,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1065,84 +1080,87 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E2">
         <v>2019</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4">
-        <v>2017</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5">
-        <v>2016</v>
+        <v>2017</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>53</v>
@@ -1153,53 +1171,50 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7">
-        <v>2014</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>55</v>
@@ -1208,38 +1223,38 @@
         <v>2013</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>56</v>
@@ -1248,38 +1263,38 @@
         <v>2012</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>57</v>
@@ -1288,6 +1303,26 @@
         <v>2009</v>
       </c>
       <c r="F13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14">
+        <v>2009</v>
+      </c>
+      <c r="F14" t="s">
         <v>46</v>
       </c>
     </row>

--- a/markdown_generator/awards_excel.xlsx
+++ b/markdown_generator/awards_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkurchin/Dropbox (MIT)/rkurchin.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3747CD-9F00-0948-A193-F61FF4DEABEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845EFE16-CEAA-8E45-B01A-58125109CA19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>MIT Materials Day Best Poster Award</t>
-  </si>
-  <si>
     <t>matday</t>
   </si>
   <si>
@@ -163,9 +160,6 @@
     <t>Research-based science competition for high school seniors, now known as the Regeneron Science Talent Search. I received semifinalist status for my work at the University of Rochester Laboratory for Laser Energetics in the summer of 2008</t>
   </si>
   <si>
-    <t>MIT CCE Symposium Poster Prize</t>
-  </si>
-  <si>
     <t>cce</t>
   </si>
   <si>
@@ -209,6 +203,12 @@
   </si>
   <si>
     <t>2019-05-01</t>
+  </si>
+  <si>
+    <t>CCE Symposium Poster Prize</t>
+  </si>
+  <si>
+    <t>Materials Day Best Poster Award</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1080,36 +1080,36 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="E2">
         <v>2019</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E3">
         <v>2019</v>
@@ -1117,16 +1117,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E4">
         <v>2018</v>
@@ -1134,36 +1134,36 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>2017</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>2016</v>
@@ -1171,16 +1171,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E7">
         <v>2016</v>
@@ -1188,142 +1188,142 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E8">
         <v>2014</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E9">
         <v>2013</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10">
         <v>2013</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>2012</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E12">
         <v>2012</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>40</v>
       </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13">
         <v>2009</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>44</v>
       </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E14">
         <v>2009</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/markdown_generator/awards_excel.xlsx
+++ b/markdown_generator/awards_excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkurchin/Dropbox (MIT)/rkurchin.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845EFE16-CEAA-8E45-B01A-58125109CA19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2CB0C3-3484-A942-8369-16D74EB80B7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>title</t>
   </si>
@@ -209,6 +209,18 @@
   </si>
   <si>
     <t>Materials Day Best Poster Award</t>
+  </si>
+  <si>
+    <t>dmse_teaching</t>
+  </si>
+  <si>
+    <t>MIT Department of Materials Science and Engineering</t>
+  </si>
+  <si>
+    <t>2019-06-06</t>
+  </si>
+  <si>
+    <t>Departmental award given to a graduate student TA "for excellence in teaching a graduate subect"</t>
   </si>
 </sst>
 </file>
@@ -1050,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="266" zoomScaleNormal="266" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1083,101 +1095,104 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E2">
         <v>2019</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <v>2019</v>
       </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5">
-        <v>2017</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6">
-        <v>2016</v>
+        <v>2017</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>51</v>
@@ -1188,53 +1203,50 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8">
-        <v>2014</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>53</v>
@@ -1243,38 +1255,38 @@
         <v>2013</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>54</v>
@@ -1283,38 +1295,38 @@
         <v>2012</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>55</v>
@@ -1323,6 +1335,26 @@
         <v>2009</v>
       </c>
       <c r="F14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15">
+        <v>2009</v>
+      </c>
+      <c r="F15" t="s">
         <v>45</v>
       </c>
     </row>

--- a/markdown_generator/awards_excel.xlsx
+++ b/markdown_generator/awards_excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkurchin/Dropbox (MIT)/rkurchin.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2CB0C3-3484-A942-8369-16D74EB80B7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BD375E-596C-0F4D-94C7-103DF3E649F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>title</t>
   </si>
@@ -221,6 +221,18 @@
   </si>
   <si>
     <t>Departmental award given to a graduate student TA "for excellence in teaching a graduate subect"</t>
+  </si>
+  <si>
+    <t>MFI Postdoctoral Fellowship</t>
+  </si>
+  <si>
+    <t>mfi</t>
+  </si>
+  <si>
+    <t>CMU Manufacturing Futures Initiative</t>
+  </si>
+  <si>
+    <t>"The MFI Postdoctoral Fellowship Program seeks candidates that will support the vision of MFI by demonstrating leadership in advanced manufacturing technologies, artificial intelligence, integrated design and entrepreneurship, the science of learning, technology policy, and addressing challenges that cross multiple disciplines."</t>
   </si>
 </sst>
 </file>
@@ -704,9 +716,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1062,9 +1075,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="266" zoomScaleNormal="266" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1092,22 +1105,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43616</v>
       </c>
       <c r="E2">
         <v>2019</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1115,101 +1128,104 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E3">
         <v>2019</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E4">
         <v>2019</v>
       </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6">
-        <v>2017</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7">
-        <v>2016</v>
+        <v>2017</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>51</v>
@@ -1220,53 +1236,50 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9">
-        <v>2014</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>53</v>
@@ -1275,38 +1288,38 @@
         <v>2013</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>54</v>
@@ -1315,38 +1328,38 @@
         <v>2012</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>55</v>
@@ -1355,6 +1368,26 @@
         <v>2009</v>
       </c>
       <c r="F15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16">
+        <v>2009</v>
+      </c>
+      <c r="F16" t="s">
         <v>45</v>
       </c>
     </row>
